--- a/Inputs/JRC_EU_TIMES/NearZeroCarbon/TIMES_Capacities_HPHS.xlsx
+++ b/Inputs/JRC_EU_TIMES/NearZeroCarbon/TIMES_Capacities_HPHS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\NearZeroCarbon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2FAD6A4-227D-443A-882C-B7DD53B63675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3CC02B-3C6E-4CC8-9537-D13234D129A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3E8BA17A-71A2-4411-AF31-DBA186555CA0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CEF7B0CB-DF14-4B98-A6A3-3320C9DB7BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Technology main input  /  Process Description1 (group)</t>
-  </si>
-  <si>
-    <t>Hydro</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Process Description1</t>
   </si>
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>Pumped Hydro ELC Storage: DayNite</t>
+    <t>Pumped Hydro ELC Storage: DayNite (accompanying tech to represent power)</t>
   </si>
   <si>
     <t>AT</t>
@@ -115,6 +112,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,17 +158,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -486,15 +486,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C127C9-119B-4CDB-B996-A3C725A3BA0D}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC7AE9E-D947-4E04-9BC1-06ECF8F42CD7}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -503,16 +503,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.7930000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -520,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>28.756</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -528,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>7.86</v>
+        <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -536,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>6.0780000000000003</v>
+        <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -544,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>5.6760000000000002</v>
+        <v>1.147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -552,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>6.8840000000000003</v>
+        <v>6.9669999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -560,7 +563,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>41.804000000000002</v>
+        <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -568,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>4.194</v>
+        <v>5.2640000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -576,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>31.585999999999999</v>
+        <v>6.9779999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -584,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>41.866</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -592,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>1.758</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -600,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>1.752</v>
+        <v>7.5510000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -608,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>45.305</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -616,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>4.5599999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -624,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>6.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -632,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>24</v>
+        <v>1.782</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -640,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>10.694000000000001</v>
+        <v>1.093</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -648,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>6.5570000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -656,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>0.55200000000000005</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -664,7 +667,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>0.65500000000000003</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -672,7 +675,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>1.08</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -680,18 +683,11 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>5.4960000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>16.463999999999999</v>
+        <v>2.7440000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>